--- a/medicine/Mort/Cimetière_du_Congrès/Cimetière_du_Congrès.xlsx
+++ b/medicine/Mort/Cimetière_du_Congrès/Cimetière_du_Congrès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Congr%C3%A8s</t>
+          <t>Cimetière_du_Congrès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Congrès (en anglais : Congressional Cemetery), également connu sous le nom de Washington Parish Burial Ground, est un cimetière américain situé au 1801 E Street SE à Washington, D.C., sur la rive ouest de l'Anacostia.
-De nombreux membres du Congrès des États-Unis, morts alors que le Congrès était en session, sont enterrés dans ce cimetière. Il abrite également des sépultures des premiers propriétaires fonciers et spéculateurs, des bâtisseurs et architectes des débuts de Washington, des diplomates amérindiens, des maires de la ville et des vétérans de la guerre de Sécession ainsi que des vétérans de chacune des guerres auxquelles ont participé les États-Unis depuis. Un vice-président des États-Unis, un juge de la Cour suprême, six membres du Cabinet présidentiel, 19 sénateurs et 71 représentants (dont un ancien président de la Chambre des représentants) y sont enterrés ainsi que le premier directeur du Federal Bureau of Investigation, J. Edgar Hoover[1].
-Le cimetière a été inscrit sur le Registre national des lieux historiques le 23 juin 1969 et déclaré National Historic Landmark en 2011[2].
+De nombreux membres du Congrès des États-Unis, morts alors que le Congrès était en session, sont enterrés dans ce cimetière. Il abrite également des sépultures des premiers propriétaires fonciers et spéculateurs, des bâtisseurs et architectes des débuts de Washington, des diplomates amérindiens, des maires de la ville et des vétérans de la guerre de Sécession ainsi que des vétérans de chacune des guerres auxquelles ont participé les États-Unis depuis. Un vice-président des États-Unis, un juge de la Cour suprême, six membres du Cabinet présidentiel, 19 sénateurs et 71 représentants (dont un ancien président de la Chambre des représentants) y sont enterrés ainsi que le premier directeur du Federal Bureau of Investigation, J. Edgar Hoover.
+Le cimetière a été inscrit sur le Registre national des lieux historiques le 23 juin 1969 et déclaré National Historic Landmark en 2011.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Congr%C3%A8s</t>
+          <t>Cimetière_du_Congrès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Congr%C3%A8s</t>
+          <t>Cimetière_du_Congrès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean Édouard Bouligny (1824-1864), représentant de la Louisiane au Congrès
 Mathew Brady (1822-1896), photographe de la guerre de Sécession
